--- a/02矽佳EMS/1-需求文档/二期/邮件提醒需求文档 V3.0(1).xlsx
+++ b/02矽佳EMS/1-需求文档/二期/邮件提醒需求文档 V3.0(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23317" windowHeight="11160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="邮件提醒格式需求文档" sheetId="1" r:id="rId1"/>
@@ -160,6 +160,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">收件人：
 发件人：
 时间：年月日时分秒
@@ -258,10 +265,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -299,7 +306,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,16 +387,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,6 +410,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -345,104 +450,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -483,13 +490,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,13 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,151 +658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,39 +701,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,15 +721,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,11 +751,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,133 +814,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,8 +1095,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="995045" y="11585575"/>
-          <a:ext cx="4766310" cy="571500"/>
+          <a:off x="1035050" y="11699875"/>
+          <a:ext cx="5029835" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,8 +1137,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="979170" y="10848975"/>
-          <a:ext cx="4747895" cy="570230"/>
+          <a:off x="1019175" y="10963275"/>
+          <a:ext cx="5011420" cy="570230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1172,8 +1179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="893445" y="6413500"/>
-          <a:ext cx="5704840" cy="752475"/>
+          <a:off x="933450" y="6527800"/>
+          <a:ext cx="6038850" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1214,8 +1221,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="995045" y="16386175"/>
-          <a:ext cx="4766310" cy="571500"/>
+          <a:off x="1035050" y="16500475"/>
+          <a:ext cx="5029835" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1256,8 +1263,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="979170" y="15649575"/>
-          <a:ext cx="4747895" cy="570230"/>
+          <a:off x="1019175" y="15763875"/>
+          <a:ext cx="5011420" cy="570230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1534,27 +1541,27 @@
   <dimension ref="B2:T95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.1238938053097" customWidth="1"/>
-    <col min="3" max="3" width="9.6283185840708" customWidth="1"/>
-    <col min="4" max="4" width="12.8761061946903" customWidth="1"/>
-    <col min="5" max="5" width="19.7522123893805" customWidth="1"/>
-    <col min="6" max="6" width="15.8761061946903" customWidth="1"/>
-    <col min="7" max="7" width="72.6814159292035" customWidth="1"/>
-    <col min="8" max="8" width="1.24778761061947" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="72.6833333333333" customWidth="1"/>
+    <col min="8" max="8" width="1.25" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="14" width="11.6283185840708" customWidth="1"/>
-    <col min="15" max="15" width="10.5044247787611" customWidth="1"/>
-    <col min="16" max="18" width="12.6283185840708" customWidth="1"/>
-    <col min="19" max="19" width="16.7522123893805" customWidth="1"/>
+    <col min="12" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="10.5083333333333" customWidth="1"/>
+    <col min="16" max="18" width="12.625" customWidth="1"/>
+    <col min="19" max="19" width="16.75" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15" spans="2:6">
+    <row r="2" ht="16.5" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1570,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="15" spans="2:6">
+    <row r="3" ht="16.5" spans="2:6">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1590,7 +1597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="2:7">
+    <row r="5" ht="16.5" spans="2:7">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1613,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="15" spans="2:7">
+    <row r="6" ht="16.5" spans="2:7">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +1629,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" ht="15" spans="2:20">
+    <row r="7" ht="16.5" spans="2:20">
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="45" spans="2:20">
+    <row r="8" ht="33" spans="2:20">
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1680,7 +1687,7 @@
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" ht="15" spans="2:20">
+    <row r="9" ht="16.5" spans="2:20">
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1711,7 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" ht="15" spans="2:7">
+    <row r="10" ht="16.5" spans="2:7">
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
@@ -1722,7 +1729,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" ht="30" spans="2:7">
+    <row r="11" ht="33" spans="2:7">
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1740,7 +1747,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" ht="15" spans="2:7">
+    <row r="12" ht="16.5" spans="2:7">
       <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1760,7 +1767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="2:7">
+    <row r="13" ht="16.5" spans="2:7">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>29</v>
@@ -1776,7 +1783,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" ht="15" spans="15:20">
+    <row r="14" ht="16.5" spans="15:20">
       <c r="O14" s="17" t="s">
         <v>12</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="2:20">
+    <row r="15" ht="16.5" spans="2:20">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -1807,7 +1814,7 @@
       <c r="S15" s="20"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" ht="15" spans="15:20">
+    <row r="16" ht="16.5" spans="15:20">
       <c r="O16" s="9"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
